--- a/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - My Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A7F6DC-1BBE-4B6C-B57B-85EEACF295E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54C62F7-FEE1-4731-90A3-8B58A205842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="209">
   <si>
     <t>Bear Island</t>
   </si>
@@ -763,6 +763,12 @@
       </rPr>
       <t xml:space="preserve"> can be added to any of the baskets for an additional fee of $40.00</t>
     </r>
+  </si>
+  <si>
+    <t>Basket, Picnic Blanket, Paper Plates, Cups, Napkins, Utensils</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1940,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2324,6 +2330,33 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2370,7 +2403,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>324825</xdr:rowOff>
+      <xdr:rowOff>321015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2412,9 +2445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>587795</xdr:colOff>
+      <xdr:colOff>591605</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>359004</xdr:rowOff>
+      <xdr:rowOff>362814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2876,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1BDF3C-7CF1-4670-8742-2CB86BCAA1B5}">
   <dimension ref="A1:AV222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2896,8 +2929,8 @@
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
     <col min="13" max="13" width="31" style="1" customWidth="1"/>
     <col min="14" max="14" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" style="1" customWidth="1"/>
     <col min="19" max="28" width="4.88671875" style="1" customWidth="1"/>
     <col min="29" max="48" width="4.5546875" style="1" customWidth="1"/>
@@ -3170,6 +3203,9 @@
       <c r="L12" s="80">
         <v>9</v>
       </c>
+      <c r="N12" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AJ12" s="6"/>
@@ -3199,6 +3235,14 @@
       </c>
       <c r="L13" s="81">
         <v>15</v>
+      </c>
+      <c r="N13" s="1" t="str" cm="1">
+        <f t="array" ref="N13:N18">TRIM(_xlfn.TEXTSPLIT(N12,,","))</f>
+        <v>Basket</v>
+      </c>
+      <c r="O13" s="1">
+        <f>_xlfn.XLOOKUP(N13,$K$12:$K$36,$L$12:$L$36)</f>
+        <v>75</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -3240,6 +3284,13 @@
       <c r="L14" s="81">
         <v>6</v>
       </c>
+      <c r="N14" s="1" t="str">
+        <v>Picnic Blanket</v>
+      </c>
+      <c r="O14" s="1">
+        <f>_xlfn.XLOOKUP(N14,$K$12:$K$36,$L$12:$L$36)</f>
+        <v>20</v>
+      </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -3280,6 +3331,13 @@
       <c r="L15" s="81">
         <v>7</v>
       </c>
+      <c r="N15" s="1" t="str">
+        <v>Paper Plates</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ref="O14:O18" si="0">_xlfn.XLOOKUP(N15,$K$12:$K$36,$L$12:$L$36)</f>
+        <v>3</v>
+      </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -3313,6 +3371,13 @@
       <c r="L16" s="81">
         <v>75</v>
       </c>
+      <c r="N16" s="1" t="str">
+        <v>Cups</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -3346,6 +3411,13 @@
       <c r="L17" s="81">
         <v>7</v>
       </c>
+      <c r="N17" s="1" t="str">
+        <v>Napkins</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -3380,6 +3452,13 @@
         <v>5</v>
       </c>
       <c r="M18" s="3"/>
+      <c r="N18" s="1" t="str">
+        <v>Utensils</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
@@ -3416,7 +3495,10 @@
         <v>5</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1">
+        <f>SUM(O13:O18)</f>
+        <v>101</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
@@ -3466,6 +3548,13 @@
         <v>12</v>
       </c>
       <c r="M21" s="3"/>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="1" cm="1">
+        <f t="array" ref="O21">SUM(_xlfn.XLOOKUP(TRIM(_xlfn.TEXTSPLIT(F23,",")),$K$12:$K$36,$L$12:$L$36))+$O$19</f>
+        <v>118</v>
+      </c>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
@@ -3499,6 +3588,13 @@
         <v>25</v>
       </c>
       <c r="M22" s="3"/>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="1" cm="1">
+        <f t="array" ref="O22">SUM(_xlfn.XLOOKUP(TRIM(_xlfn.TEXTSPLIT(F24,",")),$K$12:$K$36,$L$12:$L$36))+$O$19</f>
+        <v>121</v>
+      </c>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
@@ -3517,12 +3613,14 @@
       <c r="D23" s="46">
         <v>140</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="148"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" s="58" t="s">
@@ -3532,6 +3630,13 @@
         <v>7</v>
       </c>
       <c r="M23" s="3"/>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="1" cm="1">
+        <f t="array" ref="O23">SUM(_xlfn.XLOOKUP(TRIM(_xlfn.TEXTSPLIT(F25,",")),$K$12:$K$36,$L$12:$L$36))+$O$19</f>
+        <v>125</v>
+      </c>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
@@ -3550,12 +3655,14 @@
       <c r="D24" s="29">
         <v>150</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="150"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="58" t="s">
@@ -3565,6 +3672,13 @@
         <v>22</v>
       </c>
       <c r="M24" s="3"/>
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="1" cm="1">
+        <f t="array" ref="O24">SUM(_xlfn.XLOOKUP(TRIM(_xlfn.TEXTSPLIT(F26,",")),$K$12:$K$36,$L$12:$L$36))+$O$19</f>
+        <v>132</v>
+      </c>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
@@ -3583,12 +3697,14 @@
       <c r="D25" s="29">
         <v>155</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="150"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="58" t="s">
@@ -3598,6 +3714,13 @@
         <v>10</v>
       </c>
       <c r="M25" s="3"/>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="1" cm="1">
+        <f t="array" ref="O25">SUM(_xlfn.XLOOKUP(TRIM(_xlfn.TEXTSPLIT(F27,",")),$K$12:$K$36,$L$12:$L$36))+$O$19</f>
+        <v>117</v>
+      </c>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AM25" s="3"/>
@@ -3619,12 +3742,14 @@
       <c r="D26" s="29">
         <v>160</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="86"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="150"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="58" t="s">
@@ -3634,6 +3759,13 @@
         <v>1</v>
       </c>
       <c r="M26" s="3"/>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="1" cm="1">
+        <f t="array" ref="O26">SUM(_xlfn.XLOOKUP(TRIM(_xlfn.TEXTSPLIT(F28,",")),$K$12:$K$36,$L$12:$L$36))+$O$19</f>
+        <v>141</v>
+      </c>
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
       <c r="AU26" s="4"/>
@@ -3647,12 +3779,14 @@
       <c r="D27" s="29">
         <v>145</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="86"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="150"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="58" t="s">
@@ -3662,6 +3796,14 @@
         <v>3</v>
       </c>
       <c r="M27" s="3"/>
+      <c r="N27" t="str" cm="1">
+        <f t="array" ref="N27:N32">N21:N26&amp;" with Wine Added"</f>
+        <v>Berry Basket with Wine Added</v>
+      </c>
+      <c r="O27" s="1" cm="1">
+        <f t="array" ref="O27:O32">18+O21:O26</f>
+        <v>136</v>
+      </c>
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
@@ -3675,12 +3817,14 @@
       <c r="D28" s="54">
         <v>170</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="88"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="152"/>
       <c r="I28" s="45"/>
       <c r="J28" s="45"/>
       <c r="K28" s="58" t="s">
@@ -3690,6 +3834,12 @@
         <v>8</v>
       </c>
       <c r="M28" s="3"/>
+      <c r="N28" t="str">
+        <v>Cheesy Basket with Wine Added</v>
+      </c>
+      <c r="O28" s="1">
+        <v>139</v>
+      </c>
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
@@ -3712,6 +3862,12 @@
         <v>20</v>
       </c>
       <c r="M29" s="3"/>
+      <c r="N29" t="str">
+        <v>Fruity Basket with Wine Added</v>
+      </c>
+      <c r="O29" s="1">
+        <v>143</v>
+      </c>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
@@ -3736,6 +3892,12 @@
         <v>6</v>
       </c>
       <c r="M30" s="3"/>
+      <c r="N30" t="str">
+        <v>Hungry Basket with Wine Added</v>
+      </c>
+      <c r="O30" s="1">
+        <v>150</v>
+      </c>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
@@ -3758,6 +3920,12 @@
         <v>4</v>
       </c>
       <c r="M31" s="3"/>
+      <c r="N31" t="str">
+        <v>Snack Basket with Wine Added</v>
+      </c>
+      <c r="O31" s="1">
+        <v>135</v>
+      </c>
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
       <c r="AU31" s="4"/>
@@ -3788,6 +3956,12 @@
         <v>3</v>
       </c>
       <c r="M32" s="3"/>
+      <c r="N32" t="str">
+        <v>Bucket Basket with Wine Added</v>
+      </c>
+      <c r="O32" s="1">
+        <v>159</v>
+      </c>
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
       <c r="AU32" s="4"/>
@@ -4270,7 +4444,7 @@
     <row r="50" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K50" s="117">
         <f>SUMPRODUCT(D:D,F:F)</f>
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AK50" s="4"/>
       <c r="AL50" s="4"/>
@@ -4470,8 +4644,12 @@
       <c r="N57" t="s">
         <v>19</v>
       </c>
-      <c r="O57"/>
-      <c r="P57"/>
+      <c r="O57" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" t="s">
+        <v>208</v>
+      </c>
       <c r="Q57"/>
       <c r="R57"/>
       <c r="AJ57" s="4"/>
@@ -4522,8 +4700,14 @@
       <c r="N58">
         <v>140</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
+      <c r="O58" s="1" cm="1">
+        <f t="array" ref="O58:O69">O21:O32</f>
+        <v>118</v>
+      </c>
+      <c r="P58" cm="1">
+        <f t="array" ref="P58:P69">N58:N69-O58:O69</f>
+        <v>22</v>
+      </c>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="AJ58" s="4"/>
@@ -4573,8 +4757,12 @@
       <c r="N59">
         <v>150</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
+      <c r="O59" s="1">
+        <v>121</v>
+      </c>
+      <c r="P59">
+        <v>29</v>
+      </c>
       <c r="Q59"/>
       <c r="R59"/>
       <c r="AJ59" s="4"/>
@@ -4593,7 +4781,7 @@
     </row>
     <row r="60" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B60" s="17">
-        <f t="shared" ref="B60:B122" si="0">B59+1</f>
+        <f t="shared" ref="B60:B122" si="1">B59+1</f>
         <v>4</v>
       </c>
       <c r="C60" s="17">
@@ -4624,8 +4812,12 @@
       <c r="N60">
         <v>155</v>
       </c>
-      <c r="O60"/>
-      <c r="P60"/>
+      <c r="O60" s="1">
+        <v>125</v>
+      </c>
+      <c r="P60">
+        <v>30</v>
+      </c>
       <c r="Q60"/>
       <c r="R60"/>
       <c r="AJ60" s="4"/>
@@ -4644,7 +4836,7 @@
     </row>
     <row r="61" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B61" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C61" s="17">
@@ -4675,8 +4867,12 @@
       <c r="N61">
         <v>160</v>
       </c>
-      <c r="O61"/>
-      <c r="P61"/>
+      <c r="O61" s="1">
+        <v>132</v>
+      </c>
+      <c r="P61">
+        <v>28</v>
+      </c>
       <c r="Q61"/>
       <c r="R61"/>
       <c r="AJ61" s="4"/>
@@ -4695,7 +4891,7 @@
     </row>
     <row r="62" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B62" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C62" s="17">
@@ -4726,8 +4922,12 @@
       <c r="N62">
         <v>145</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
+      <c r="O62" s="1">
+        <v>117</v>
+      </c>
+      <c r="P62">
+        <v>28</v>
+      </c>
       <c r="Q62"/>
       <c r="R62"/>
       <c r="AJ62" s="4"/>
@@ -4746,7 +4946,7 @@
     </row>
     <row r="63" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B63" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C63" s="17">
@@ -4777,8 +4977,12 @@
       <c r="N63">
         <v>170</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
+      <c r="O63" s="1">
+        <v>141</v>
+      </c>
+      <c r="P63">
+        <v>29</v>
+      </c>
       <c r="Q63"/>
       <c r="R63"/>
       <c r="AJ63" s="4"/>
@@ -4797,7 +5001,7 @@
     </row>
     <row r="64" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B64" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C64" s="17">
@@ -4829,6 +5033,12 @@
       <c r="N64" s="1" cm="1">
         <f t="array" ref="N64:N69">N58:N63+40</f>
         <v>180</v>
+      </c>
+      <c r="O64" s="1">
+        <v>136</v>
+      </c>
+      <c r="P64" s="1">
+        <v>44</v>
       </c>
       <c r="AK64" s="4"/>
       <c r="AL64" s="4"/>
@@ -4845,7 +5055,7 @@
     </row>
     <row r="65" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B65" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C65" s="17">
@@ -4875,6 +5085,12 @@
       </c>
       <c r="N65" s="1">
         <v>190</v>
+      </c>
+      <c r="O65" s="1">
+        <v>139</v>
+      </c>
+      <c r="P65" s="1">
+        <v>51</v>
       </c>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
@@ -4891,7 +5107,7 @@
     </row>
     <row r="66" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B66" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C66" s="17">
@@ -4921,6 +5137,12 @@
       </c>
       <c r="N66" s="1">
         <v>195</v>
+      </c>
+      <c r="O66" s="1">
+        <v>143</v>
+      </c>
+      <c r="P66" s="1">
+        <v>52</v>
       </c>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
@@ -4946,6 +5168,12 @@
       <c r="N67" s="1">
         <v>200</v>
       </c>
+      <c r="O67" s="1">
+        <v>150</v>
+      </c>
+      <c r="P67" s="1">
+        <v>50</v>
+      </c>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
       <c r="AM67" s="4"/>
@@ -4983,6 +5211,12 @@
       <c r="N68" s="1">
         <v>185</v>
       </c>
+      <c r="O68" s="1">
+        <v>135</v>
+      </c>
+      <c r="P68" s="1">
+        <v>50</v>
+      </c>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4"/>
       <c r="AM68" s="4"/>
@@ -5006,6 +5240,12 @@
       </c>
       <c r="N69" s="1">
         <v>210</v>
+      </c>
+      <c r="O69" s="1">
+        <v>159</v>
+      </c>
+      <c r="P69" s="1">
+        <v>51</v>
       </c>
       <c r="AK69" s="4"/>
       <c r="AL69" s="4"/>
@@ -5231,6 +5471,14 @@
       <c r="H79" s="25">
         <v>3</v>
       </c>
+      <c r="K79" s="1" cm="1">
+        <f t="array" ref="K79:K100">_xlfn.XLOOKUP(G79:G100,$M$58:$M$69,$N$58:$N$69)*H79:H100</f>
+        <v>600</v>
+      </c>
+      <c r="M79" s="1">
+        <f>3*P58</f>
+        <v>66</v>
+      </c>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
@@ -5250,6 +5498,9 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
+      <c r="K80" s="1" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
@@ -5274,16 +5525,25 @@
       <c r="D81" s="18">
         <v>8</v>
       </c>
-      <c r="E81" s="19"/>
+      <c r="E81" s="19">
+        <v>176</v>
+      </c>
       <c r="F81" s="37">
         <f>IF(ISBLANK(E81),0,IF(E81=Answers!E81,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H81" s="25">
         <v>8</v>
+      </c>
+      <c r="I81" s="1" cm="1">
+        <f t="array" ref="I81">_xlfn.XLOOKUP(G81,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H81</f>
+        <v>176</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1120</v>
       </c>
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
@@ -5301,7 +5561,7 @@
     </row>
     <row r="82" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C82" s="17">
@@ -5310,16 +5570,25 @@
       <c r="D82" s="18">
         <v>8</v>
       </c>
-      <c r="E82" s="19"/>
+      <c r="E82" s="19">
+        <v>84</v>
+      </c>
       <c r="F82" s="37">
         <f>IF(ISBLANK(E82),0,IF(E82=Answers!E82,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="25" t="s">
         <v>31</v>
       </c>
       <c r="H82" s="25">
         <v>3</v>
+      </c>
+      <c r="I82" s="1" cm="1">
+        <f t="array" ref="I82">_xlfn.XLOOKUP(G82,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H82</f>
+        <v>84</v>
+      </c>
+      <c r="K82" s="1">
+        <v>480</v>
       </c>
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
@@ -5337,7 +5606,7 @@
     </row>
     <row r="83" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C83" s="17">
@@ -5346,16 +5615,25 @@
       <c r="D83" s="18">
         <v>8</v>
       </c>
-      <c r="E83" s="19"/>
+      <c r="E83" s="19">
+        <v>392</v>
+      </c>
       <c r="F83" s="37">
         <f>IF(ISBLANK(E83),0,IF(E83=Answers!E83,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="25">
         <v>14</v>
+      </c>
+      <c r="I83" s="1" cm="1">
+        <f t="array" ref="I83">_xlfn.XLOOKUP(G83,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H83</f>
+        <v>392</v>
+      </c>
+      <c r="K83" s="1">
+        <v>2030</v>
       </c>
       <c r="AJ83" s="4"/>
       <c r="AK83" s="4"/>
@@ -5373,7 +5651,7 @@
     </row>
     <row r="84" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C84" s="17">
@@ -5382,16 +5660,25 @@
       <c r="D84" s="18">
         <v>8</v>
       </c>
-      <c r="E84" s="19"/>
+      <c r="E84" s="19">
+        <v>306</v>
+      </c>
       <c r="F84" s="37">
         <f>IF(ISBLANK(E84),0,IF(E84=Answers!E84,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="25" t="s">
         <v>82</v>
       </c>
       <c r="H84" s="25">
         <v>6</v>
+      </c>
+      <c r="I84" s="1" cm="1">
+        <f t="array" ref="I84">_xlfn.XLOOKUP(G84,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H84</f>
+        <v>306</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1260</v>
       </c>
       <c r="AJ84" s="4"/>
       <c r="AK84" s="4"/>
@@ -5409,7 +5696,7 @@
     </row>
     <row r="85" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C85" s="17">
@@ -5418,16 +5705,25 @@
       <c r="D85" s="18">
         <v>8</v>
       </c>
-      <c r="E85" s="19"/>
+      <c r="E85" s="19">
+        <v>210</v>
+      </c>
       <c r="F85" s="37">
         <f>IF(ISBLANK(E85),0,IF(E85=Answers!E85,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>28</v>
       </c>
       <c r="H85" s="25">
         <v>7</v>
+      </c>
+      <c r="I85" s="1" cm="1">
+        <f t="array" ref="I85">_xlfn.XLOOKUP(G85,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H85</f>
+        <v>210</v>
+      </c>
+      <c r="K85" s="1">
+        <v>1085</v>
       </c>
       <c r="AJ85" s="4"/>
       <c r="AK85" s="4"/>
@@ -5445,7 +5741,7 @@
     </row>
     <row r="86" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C86" s="17">
@@ -5454,16 +5750,25 @@
       <c r="D86" s="18">
         <v>8</v>
       </c>
-      <c r="E86" s="19"/>
+      <c r="E86" s="19">
+        <v>408</v>
+      </c>
       <c r="F86" s="37">
         <f>IF(ISBLANK(E86),0,IF(E86=Answers!E86,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="25" t="s">
         <v>83</v>
       </c>
       <c r="H86" s="25">
         <v>8</v>
+      </c>
+      <c r="I86" s="1" cm="1">
+        <f t="array" ref="I86">_xlfn.XLOOKUP(G86,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H86</f>
+        <v>408</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1520</v>
       </c>
       <c r="AJ86" s="4"/>
       <c r="AK86" s="4"/>
@@ -5481,7 +5786,7 @@
     </row>
     <row r="87" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C87" s="17">
@@ -5490,16 +5795,25 @@
       <c r="D87" s="18">
         <v>8</v>
       </c>
-      <c r="E87" s="19"/>
+      <c r="E87" s="19">
+        <v>196</v>
+      </c>
       <c r="F87" s="37">
         <f>IF(ISBLANK(E87),0,IF(E87=Answers!E87,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H87" s="25">
         <v>7</v>
+      </c>
+      <c r="I87" s="1" cm="1">
+        <f t="array" ref="I87">_xlfn.XLOOKUP(G87,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H87</f>
+        <v>196</v>
+      </c>
+      <c r="K87" s="1">
+        <v>1015</v>
       </c>
       <c r="AJ87" s="4"/>
       <c r="AK87" s="4"/>
@@ -5517,7 +5831,7 @@
     </row>
     <row r="88" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C88" s="17">
@@ -5526,16 +5840,25 @@
       <c r="D88" s="18">
         <v>8</v>
       </c>
-      <c r="E88" s="19"/>
+      <c r="E88" s="19">
+        <v>261</v>
+      </c>
       <c r="F88" s="37">
         <f>IF(ISBLANK(E88),0,IF(E88=Answers!E88,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="25" t="s">
         <v>37</v>
       </c>
       <c r="H88" s="25">
         <v>9</v>
+      </c>
+      <c r="I88" s="1" cm="1">
+        <f t="array" ref="I88">_xlfn.XLOOKUP(G88,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H88</f>
+        <v>261</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1530</v>
       </c>
       <c r="AJ88" s="4"/>
       <c r="AK88" s="4"/>
@@ -5553,7 +5876,7 @@
     </row>
     <row r="89" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C89" s="17">
@@ -5562,16 +5885,25 @@
       <c r="D89" s="18">
         <v>8</v>
       </c>
-      <c r="E89" s="19"/>
+      <c r="E89" s="19">
+        <v>468</v>
+      </c>
       <c r="F89" s="37">
         <f>IF(ISBLANK(E89),0,IF(E89=Answers!E89,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H89" s="25">
         <v>9</v>
+      </c>
+      <c r="I89" s="1" cm="1">
+        <f t="array" ref="I89">_xlfn.XLOOKUP(G89,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H89</f>
+        <v>468</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1755</v>
       </c>
       <c r="AJ89" s="4"/>
       <c r="AK89" s="4"/>
@@ -5589,7 +5921,7 @@
     </row>
     <row r="90" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C90" s="17">
@@ -5598,16 +5930,25 @@
       <c r="D90" s="18">
         <v>8</v>
       </c>
-      <c r="E90" s="19"/>
+      <c r="E90" s="19">
+        <v>357</v>
+      </c>
       <c r="F90" s="37">
         <f>IF(ISBLANK(E90),0,IF(E90=Answers!E90,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="25" t="s">
         <v>83</v>
       </c>
       <c r="H90" s="25">
         <v>7</v>
+      </c>
+      <c r="I90" s="1" cm="1">
+        <f t="array" ref="I90">_xlfn.XLOOKUP(G90,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H90</f>
+        <v>357</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1330</v>
       </c>
       <c r="AJ90" s="4"/>
       <c r="AK90" s="4"/>
@@ -5625,7 +5966,7 @@
     </row>
     <row r="91" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C91" s="17">
@@ -5634,16 +5975,25 @@
       <c r="D91" s="18">
         <v>8</v>
       </c>
-      <c r="E91" s="19"/>
+      <c r="E91" s="19">
+        <v>484</v>
+      </c>
       <c r="F91" s="37">
         <f>IF(ISBLANK(E91),0,IF(E91=Answers!E91,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="25" t="s">
         <v>92</v>
       </c>
       <c r="H91" s="25">
         <v>11</v>
+      </c>
+      <c r="I91" s="1" cm="1">
+        <f t="array" ref="I91">_xlfn.XLOOKUP(G91,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H91</f>
+        <v>484</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1980</v>
       </c>
       <c r="AJ91" s="4"/>
       <c r="AK91" s="4"/>
@@ -5661,7 +6011,7 @@
     </row>
     <row r="92" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C92" s="17">
@@ -5670,16 +6020,25 @@
       <c r="D92" s="18">
         <v>8</v>
       </c>
-      <c r="E92" s="19"/>
+      <c r="E92" s="19">
+        <v>800</v>
+      </c>
       <c r="F92" s="37">
         <f>IF(ISBLANK(E92),0,IF(E92=Answers!E92,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H92" s="25">
         <v>16</v>
+      </c>
+      <c r="I92" s="1" cm="1">
+        <f t="array" ref="I92">_xlfn.XLOOKUP(G92,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H92</f>
+        <v>800</v>
+      </c>
+      <c r="K92" s="1">
+        <v>3200</v>
       </c>
       <c r="AJ92" s="4"/>
       <c r="AK92" s="4"/>
@@ -5697,7 +6056,7 @@
     </row>
     <row r="93" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C93" s="17">
@@ -5706,16 +6065,25 @@
       <c r="D93" s="18">
         <v>8</v>
       </c>
-      <c r="E93" s="19"/>
+      <c r="E93" s="19">
+        <v>700</v>
+      </c>
       <c r="F93" s="37">
         <f>IF(ISBLANK(E93),0,IF(E93=Answers!E93,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="25" t="s">
         <v>93</v>
       </c>
       <c r="H93" s="25">
         <v>14</v>
+      </c>
+      <c r="I93" s="1" cm="1">
+        <f t="array" ref="I93">_xlfn.XLOOKUP(G93,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H93</f>
+        <v>700</v>
+      </c>
+      <c r="K93" s="1">
+        <v>2590</v>
       </c>
       <c r="AJ93" s="4"/>
       <c r="AK93" s="4"/>
@@ -5733,7 +6101,7 @@
     </row>
     <row r="94" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C94" s="17">
@@ -5742,16 +6110,25 @@
       <c r="D94" s="18">
         <v>8</v>
       </c>
-      <c r="E94" s="19"/>
+      <c r="E94" s="19">
+        <v>104</v>
+      </c>
       <c r="F94" s="37">
         <f>IF(ISBLANK(E94),0,IF(E94=Answers!E94,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H94" s="25">
         <v>2</v>
+      </c>
+      <c r="I94" s="1" cm="1">
+        <f t="array" ref="I94">_xlfn.XLOOKUP(G94,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H94</f>
+        <v>104</v>
+      </c>
+      <c r="K94" s="1">
+        <v>390</v>
       </c>
       <c r="AJ94" s="4"/>
       <c r="AK94" s="4"/>
@@ -5769,7 +6146,7 @@
     </row>
     <row r="95" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C95" s="17">
@@ -5778,16 +6155,25 @@
       <c r="D95" s="18">
         <v>8</v>
       </c>
-      <c r="E95" s="19"/>
+      <c r="E95" s="19">
+        <v>250</v>
+      </c>
       <c r="F95" s="37">
         <f>IF(ISBLANK(E95),0,IF(E95=Answers!E95,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="25" t="s">
         <v>93</v>
       </c>
       <c r="H95" s="25">
         <v>5</v>
+      </c>
+      <c r="I95" s="1" cm="1">
+        <f t="array" ref="I95">_xlfn.XLOOKUP(G95,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H95</f>
+        <v>250</v>
+      </c>
+      <c r="K95" s="1">
+        <v>925</v>
       </c>
       <c r="AJ95" s="4"/>
       <c r="AK95" s="4"/>
@@ -5805,7 +6191,7 @@
     </row>
     <row r="96" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C96" s="17">
@@ -5814,16 +6200,25 @@
       <c r="D96" s="18">
         <v>8</v>
       </c>
-      <c r="E96" s="19"/>
+      <c r="E96" s="19">
+        <v>252</v>
+      </c>
       <c r="F96" s="37">
         <f>IF(ISBLANK(E96),0,IF(E96=Answers!E96,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="25" t="s">
         <v>31</v>
       </c>
       <c r="H96" s="25">
         <v>9</v>
+      </c>
+      <c r="I96" s="1" cm="1">
+        <f t="array" ref="I96">_xlfn.XLOOKUP(G96,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H96</f>
+        <v>252</v>
+      </c>
+      <c r="K96" s="1">
+        <v>1440</v>
       </c>
       <c r="AJ96" s="4"/>
       <c r="AK96" s="4"/>
@@ -5841,7 +6236,7 @@
     </row>
     <row r="97" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C97" s="17">
@@ -5850,16 +6245,25 @@
       <c r="D97" s="18">
         <v>8</v>
       </c>
-      <c r="E97" s="19"/>
+      <c r="E97" s="19">
+        <v>364</v>
+      </c>
       <c r="F97" s="37">
         <f>IF(ISBLANK(E97),0,IF(E97=Answers!E97,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H97" s="25">
         <v>13</v>
+      </c>
+      <c r="I97" s="1" cm="1">
+        <f t="array" ref="I97">_xlfn.XLOOKUP(G97,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H97</f>
+        <v>364</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1885</v>
       </c>
       <c r="AJ97" s="4"/>
       <c r="AK97" s="4"/>
@@ -5877,7 +6281,7 @@
     </row>
     <row r="98" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C98" s="17">
@@ -5886,16 +6290,25 @@
       <c r="D98" s="18">
         <v>8</v>
       </c>
-      <c r="E98" s="19"/>
+      <c r="E98" s="19">
+        <v>87</v>
+      </c>
       <c r="F98" s="37">
         <f>IF(ISBLANK(E98),0,IF(E98=Answers!E98,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="25" t="s">
         <v>37</v>
       </c>
       <c r="H98" s="25">
         <v>3</v>
+      </c>
+      <c r="I98" s="1" cm="1">
+        <f t="array" ref="I98">_xlfn.XLOOKUP(G98,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H98</f>
+        <v>87</v>
+      </c>
+      <c r="K98" s="1">
+        <v>510</v>
       </c>
       <c r="AJ98" s="4"/>
       <c r="AK98" s="4"/>
@@ -5913,7 +6326,7 @@
     </row>
     <row r="99" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C99" s="17">
@@ -5922,16 +6335,25 @@
       <c r="D99" s="18">
         <v>8</v>
       </c>
-      <c r="E99" s="19"/>
+      <c r="E99" s="19">
+        <v>1092</v>
+      </c>
       <c r="F99" s="37">
         <f>IF(ISBLANK(E99),0,IF(E99=Answers!E99,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H99" s="25">
         <v>21</v>
+      </c>
+      <c r="I99" s="1" cm="1">
+        <f t="array" ref="I99">_xlfn.XLOOKUP(G99,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H99</f>
+        <v>1092</v>
+      </c>
+      <c r="K99" s="1">
+        <v>4095</v>
       </c>
       <c r="AJ99" s="4"/>
       <c r="AK99" s="4"/>
@@ -5949,7 +6371,7 @@
     </row>
     <row r="100" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C100" s="17">
@@ -5958,16 +6380,25 @@
       <c r="D100" s="18">
         <v>8</v>
       </c>
-      <c r="E100" s="19"/>
+      <c r="E100" s="19">
+        <v>1150</v>
+      </c>
       <c r="F100" s="37">
         <f>IF(ISBLANK(E100),0,IF(E100=Answers!E100,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H100" s="25">
         <v>23</v>
+      </c>
+      <c r="I100" s="1" cm="1">
+        <f t="array" ref="I100">_xlfn.XLOOKUP(G100,$M$58:$M$69,_xlfn.ANCHORARRAY($P$58))*H100</f>
+        <v>1150</v>
+      </c>
+      <c r="K100" s="1">
+        <v>4600</v>
       </c>
       <c r="AJ100" s="4"/>
       <c r="AK100" s="4"/>
@@ -6013,11 +6444,11 @@
       </c>
       <c r="E102" s="19">
         <f>SUM(E81:E100)</f>
-        <v>0</v>
+        <v>8141</v>
       </c>
       <c r="F102" s="37">
         <f>IF(ISBLANK(E102),0,IF(E102=Answers!E102,1,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK102" s="4"/>
       <c r="AL102" s="4"/>
@@ -6411,7 +6842,7 @@
     </row>
     <row r="116" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B116" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C116" s="17">
@@ -6458,7 +6889,7 @@
     </row>
     <row r="117" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B117" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C117" s="17">
@@ -6505,7 +6936,7 @@
     </row>
     <row r="118" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B118" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C118" s="17">
@@ -6552,7 +6983,7 @@
     </row>
     <row r="119" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B119" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C119" s="17">
@@ -6599,7 +7030,7 @@
     </row>
     <row r="120" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B120" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C120" s="17">
@@ -6646,7 +7077,7 @@
     </row>
     <row r="121" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B121" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C121" s="17">
@@ -6693,7 +7124,7 @@
     </row>
     <row r="122" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B122" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C122" s="17">
@@ -6740,7 +7171,7 @@
     </row>
     <row r="123" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B123" s="17">
-        <f t="shared" ref="B123:B188" si="1">B122+1</f>
+        <f t="shared" ref="B123:B188" si="2">B122+1</f>
         <v>39</v>
       </c>
       <c r="C123" s="17">
@@ -6787,7 +7218,7 @@
     </row>
     <row r="124" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B124" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="C124" s="17">
@@ -6834,7 +7265,7 @@
     </row>
     <row r="125" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B125" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="C125" s="17">
@@ -6881,7 +7312,7 @@
     </row>
     <row r="126" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B126" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="C126" s="17">
@@ -6928,7 +7359,7 @@
     </row>
     <row r="127" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B127" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="C127" s="17">
@@ -6975,7 +7406,7 @@
     </row>
     <row r="128" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B128" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="C128" s="17">
@@ -7022,7 +7453,7 @@
     </row>
     <row r="129" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B129" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="C129" s="17">
@@ -7069,7 +7500,7 @@
     </row>
     <row r="130" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B130" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="C130" s="17">
@@ -7116,7 +7547,7 @@
     </row>
     <row r="131" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B131" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C131" s="17">
@@ -7163,7 +7594,7 @@
     </row>
     <row r="132" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B132" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="C132" s="17">
@@ -7210,7 +7641,7 @@
     </row>
     <row r="133" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B133" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="C133" s="17">
@@ -7257,7 +7688,7 @@
     </row>
     <row r="134" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B134" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C134" s="17">
@@ -7680,7 +8111,7 @@
     </row>
     <row r="150" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B150" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="C150" s="17">
@@ -7718,7 +8149,7 @@
     </row>
     <row r="151" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B151" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="C151" s="17">
@@ -7756,7 +8187,7 @@
     </row>
     <row r="152" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B152" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="C152" s="17">
@@ -7794,7 +8225,7 @@
     </row>
     <row r="153" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B153" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="C153" s="17">
@@ -7832,7 +8263,7 @@
     </row>
     <row r="154" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B154" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="C154" s="17">
@@ -7870,7 +8301,7 @@
     </row>
     <row r="155" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B155" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="C155" s="17">
@@ -7908,7 +8339,7 @@
     </row>
     <row r="156" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B156" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="C156" s="17">
@@ -7946,7 +8377,7 @@
     </row>
     <row r="157" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B157" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="C157" s="17">
@@ -7984,7 +8415,7 @@
     </row>
     <row r="158" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B158" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="C158" s="17">
@@ -8022,7 +8453,7 @@
     </row>
     <row r="159" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B159" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="C159" s="17">
@@ -8060,7 +8491,7 @@
     </row>
     <row r="160" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B160" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="C160" s="17">
@@ -8098,7 +8529,7 @@
     </row>
     <row r="161" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B161" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="C161" s="17">
@@ -8136,7 +8567,7 @@
     </row>
     <row r="162" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B162" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="C162" s="17">
@@ -8174,7 +8605,7 @@
     </row>
     <row r="163" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B163" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="C163" s="17">
@@ -8212,7 +8643,7 @@
     </row>
     <row r="164" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B164" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="C164" s="17">
@@ -8250,7 +8681,7 @@
     </row>
     <row r="165" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B165" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="C165" s="17">
@@ -8288,7 +8719,7 @@
     </row>
     <row r="166" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B166" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="C166" s="17">
@@ -8326,7 +8757,7 @@
     </row>
     <row r="167" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B167" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="C167" s="17">
@@ -8364,7 +8795,7 @@
     </row>
     <row r="168" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B168" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="C168" s="17">
@@ -9222,7 +9653,7 @@
     </row>
     <row r="185" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B185" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="C185" s="17">
@@ -9283,7 +9714,7 @@
     </row>
     <row r="186" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B186" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="C186" s="17">
@@ -9344,7 +9775,7 @@
     </row>
     <row r="187" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B187" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="C187" s="17">
@@ -9405,7 +9836,7 @@
     </row>
     <row r="188" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B188" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="C188" s="17">
@@ -9466,7 +9897,7 @@
     </row>
     <row r="189" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B189" s="17">
-        <f t="shared" ref="B189:B213" si="2">B188+1</f>
+        <f t="shared" ref="B189:B213" si="3">B188+1</f>
         <v>76</v>
       </c>
       <c r="C189" s="17">
@@ -9527,7 +9958,7 @@
     </row>
     <row r="190" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B190" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="C190" s="17">
@@ -9588,7 +10019,7 @@
     </row>
     <row r="191" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B191" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="C191" s="17">
@@ -9649,7 +10080,7 @@
     </row>
     <row r="192" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B192" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="C192" s="17">
@@ -9710,7 +10141,7 @@
     </row>
     <row r="193" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B193" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C193" s="17">
@@ -9771,7 +10202,7 @@
     </row>
     <row r="194" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B194" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="C194" s="17">
@@ -9832,7 +10263,7 @@
     </row>
     <row r="195" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B195" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="C195" s="17">
@@ -9893,7 +10324,7 @@
     </row>
     <row r="196" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B196" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="C196" s="17">
@@ -9954,7 +10385,7 @@
     </row>
     <row r="197" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B197" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="C197" s="17">
@@ -10015,7 +10446,7 @@
     </row>
     <row r="198" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B198" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="C198" s="17">
@@ -10076,7 +10507,7 @@
     </row>
     <row r="199" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B199" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="C199" s="17">
@@ -10137,7 +10568,7 @@
     </row>
     <row r="200" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B200" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="C200" s="17">
@@ -10198,7 +10629,7 @@
     </row>
     <row r="201" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B201" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="C201" s="17">
@@ -10259,7 +10690,7 @@
     </row>
     <row r="202" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B202" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="C202" s="17">
@@ -10320,7 +10751,7 @@
     </row>
     <row r="203" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B203" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="C203" s="17">
@@ -10381,7 +10812,7 @@
     </row>
     <row r="204" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B204" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="C204" s="17">
@@ -10442,7 +10873,7 @@
     </row>
     <row r="205" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B205" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="C205" s="17">
@@ -10503,7 +10934,7 @@
     </row>
     <row r="206" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B206" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="C206" s="17">
@@ -10564,7 +10995,7 @@
     </row>
     <row r="207" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B207" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="C207" s="17">
@@ -10625,7 +11056,7 @@
     </row>
     <row r="208" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B208" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="C208" s="17">
@@ -10686,7 +11117,7 @@
     </row>
     <row r="209" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B209" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="C209" s="17">
@@ -10747,7 +11178,7 @@
     </row>
     <row r="210" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B210" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="C210" s="17">
@@ -10808,7 +11239,7 @@
     </row>
     <row r="211" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B211" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="C211" s="17">
@@ -10869,7 +11300,7 @@
     </row>
     <row r="212" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B212" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="C212" s="17">
@@ -10930,7 +11361,7 @@
     </row>
     <row r="213" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B213" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="C213" s="17">
@@ -11423,7 +11854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529FEC6F-EAFA-4279-913B-5F6A84D73577}">
   <dimension ref="A1:AV222"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - My Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54C62F7-FEE1-4731-90A3-8B58A205842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AB7758-F86A-4D36-9D26-1E7DF689D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
@@ -1940,7 +1940,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2234,6 +2234,33 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2330,32 +2357,17 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2400,10 +2412,10 @@
       <xdr:rowOff>62344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>321015</xdr:rowOff>
+      <xdr:rowOff>324825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2445,9 +2457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>591605</xdr:colOff>
+      <xdr:colOff>587795</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>362814</xdr:rowOff>
+      <xdr:rowOff>359004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2909,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1BDF3C-7CF1-4670-8742-2CB86BCAA1B5}">
   <dimension ref="A1:AV222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2926,7 +2938,7 @@
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="31" style="1" customWidth="1"/>
     <col min="14" max="14" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.6640625" style="1" customWidth="1"/>
@@ -2966,19 +2978,19 @@
       <c r="AV1" s="4"/>
     </row>
     <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
       <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
@@ -3077,19 +3089,19 @@
       <c r="AV8" s="4"/>
     </row>
     <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
-      <c r="K9" s="145" t="s">
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+      <c r="K9" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="145"/>
+      <c r="L9" s="154"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -3115,15 +3127,15 @@
       <c r="AV9" s="4"/>
     </row>
     <row r="10" spans="2:48" ht="14.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="129"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
@@ -3150,13 +3162,13 @@
       <c r="AV10" s="4"/>
     </row>
     <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="132"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="141"/>
       <c r="K11" s="90" t="s">
         <v>6</v>
       </c>
@@ -3190,13 +3202,13 @@
       <c r="AV11" s="4"/>
     </row>
     <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="132"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="141"/>
       <c r="K12" s="79" t="s">
         <v>7</v>
       </c>
@@ -3223,13 +3235,13 @@
       <c r="AV12" s="4"/>
     </row>
     <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="132"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="141"/>
       <c r="K13" s="58" t="s">
         <v>8</v>
       </c>
@@ -3271,13 +3283,13 @@
       <c r="AV13" s="4"/>
     </row>
     <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="132"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
       <c r="K14" s="58" t="s">
         <v>9</v>
       </c>
@@ -3318,13 +3330,13 @@
       <c r="AV14" s="4"/>
     </row>
     <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="132"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="K15" s="58" t="s">
         <v>10</v>
       </c>
@@ -3335,7 +3347,7 @@
         <v>Paper Plates</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" ref="O14:O18" si="0">_xlfn.XLOOKUP(N15,$K$12:$K$36,$L$12:$L$36)</f>
+        <f t="shared" ref="O15:O18" si="0">_xlfn.XLOOKUP(N15,$K$12:$K$36,$L$12:$L$36)</f>
         <v>3</v>
       </c>
       <c r="AE15" s="3"/>
@@ -3358,13 +3370,13 @@
       <c r="AV15" s="4"/>
     </row>
     <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="132"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
       <c r="K16" s="58" t="s">
         <v>11</v>
       </c>
@@ -3398,13 +3410,13 @@
       <c r="AV16" s="4"/>
     </row>
     <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141"/>
       <c r="K17" s="58" t="s">
         <v>12</v>
       </c>
@@ -3438,13 +3450,13 @@
       <c r="AV17" s="4"/>
     </row>
     <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="144"/>
       <c r="K18" s="58" t="s">
         <v>13</v>
       </c>
@@ -3503,15 +3515,15 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="58" t="s">
@@ -3616,11 +3628,11 @@
       <c r="E23" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="153" t="s">
+      <c r="F23" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="147"/>
-      <c r="H23" s="148"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" s="58" t="s">
@@ -3658,11 +3670,11 @@
       <c r="E24" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="154" t="s">
+      <c r="F24" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="149"/>
-      <c r="H24" s="150"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="58" t="s">
@@ -3700,11 +3712,11 @@
       <c r="E25" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="154" t="s">
+      <c r="F25" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="149"/>
-      <c r="H25" s="150"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="58" t="s">
@@ -3745,11 +3757,11 @@
       <c r="E26" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="154" t="s">
+      <c r="F26" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="149"/>
-      <c r="H26" s="150"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="58" t="s">
@@ -3782,11 +3794,11 @@
       <c r="E27" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="154" t="s">
+      <c r="F27" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="149"/>
-      <c r="H27" s="150"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="58" t="s">
@@ -3820,11 +3832,11 @@
       <c r="E28" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="155" t="s">
+      <c r="F28" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="152"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
       <c r="I28" s="45"/>
       <c r="J28" s="45"/>
       <c r="K28" s="58" t="s">
@@ -3874,15 +3886,15 @@
       <c r="AV29" s="4"/>
     </row>
     <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="58" t="s">
@@ -3972,7 +3984,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="103" t="s">
+      <c r="D33" s="157" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="46">
@@ -4002,7 +4014,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="47"/>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="158" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="29">
@@ -4032,7 +4044,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="53"/>
-      <c r="D35" s="104" t="s">
+      <c r="D35" s="159" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="54">
@@ -4174,14 +4186,14 @@
       <c r="E41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="123" t="s">
+      <c r="G41" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="125"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="134"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -4217,14 +4229,14 @@
         <f>IF(ISBLANK(E42),0,IF(E42=Answers!E42,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G42" s="139" t="s">
+      <c r="G42" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="141"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="150"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -4260,14 +4272,14 @@
         <f>IF(ISBLANK(E43),0,IF(E43=Answers!E43,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G43" s="142" t="s">
+      <c r="G43" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="144"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="153"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -4303,14 +4315,14 @@
         <f>IF(ISBLANK(E44),0,IF(E44=Answers!E44,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G44" s="120" t="s">
+      <c r="G44" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="122"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="131"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
@@ -4442,9 +4454,9 @@
       <c r="AV49" s="4"/>
     </row>
     <row r="50" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="K50" s="117">
+      <c r="K50" s="126">
         <f>SUMPRODUCT(D:D,F:F)</f>
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AK50" s="4"/>
       <c r="AL50" s="4"/>
@@ -4463,7 +4475,7 @@
       <c r="B51" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K51" s="118"/>
+      <c r="K51" s="127"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="AK51" s="4"/>
@@ -4482,7 +4494,7 @@
     <row r="52" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="22"/>
       <c r="G52" s="26"/>
-      <c r="K52" s="118"/>
+      <c r="K52" s="127"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="AK52" s="4"/>
@@ -4517,7 +4529,7 @@
       <c r="H53" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="119"/>
+      <c r="K53" s="128"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="AK53" s="4"/>
@@ -6742,8 +6754,20 @@
       <c r="H113" s="25">
         <v>3</v>
       </c>
-      <c r="I113" s="25" t="s">
+      <c r="I113" s="156" t="s">
         <v>50</v>
+      </c>
+      <c r="K113" s="1">
+        <f>H113*_xlfn.XLOOKUP(G113,$M$58:$M$69,$N$58:$N$69)</f>
+        <v>600</v>
+      </c>
+      <c r="L113" s="1" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(I113,$D$33:$D$35,$F$33:$F$35))</f>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="M113" s="1">
+        <f>_xlfn.XLOOKUP(L113,$K$12:$K$36,$L$12:$L$36)*H113</f>
+        <v>36</v>
       </c>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
@@ -6772,6 +6796,18 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
+      <c r="K114" s="1" t="e">
+        <f t="shared" ref="K114:K134" si="2">H114*_xlfn.XLOOKUP(G114,$M$58:$M$69,$N$58:$N$69)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L114" s="1" t="e">
+        <f t="shared" ref="L114:L134" si="3">TRIM(_xlfn.XLOOKUP(I114,$D$33:$D$35,$F$33:$F$35))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M114" s="1" t="e">
+        <f t="shared" ref="M114:M134" si="4">_xlfn.XLOOKUP(L114,$K$12:$K$36,$L$12:$L$36)*H114</f>
+        <v>#N/A</v>
+      </c>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
       <c r="AD114" s="4"/>
@@ -6804,10 +6840,13 @@
       <c r="D115" s="18">
         <v>10</v>
       </c>
-      <c r="E115" s="19"/>
+      <c r="E115" s="19">
+        <f>K115-M115</f>
+        <v>1088</v>
+      </c>
       <c r="F115" s="37">
         <f>IF(ISBLANK(E115),0,IF(E115=Answers!E115,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>22</v>
@@ -6815,8 +6854,20 @@
       <c r="H115" s="25">
         <v>8</v>
       </c>
-      <c r="I115" s="25" t="s">
+      <c r="I115" s="156" t="s">
         <v>56</v>
+      </c>
+      <c r="K115" s="1">
+        <f t="shared" si="2"/>
+        <v>1120</v>
+      </c>
+      <c r="L115" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Raspberries</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
@@ -6851,10 +6902,13 @@
       <c r="D116" s="18">
         <v>10</v>
       </c>
-      <c r="E116" s="19"/>
+      <c r="E116" s="19">
+        <f t="shared" ref="E116:E134" si="5">K116-M116</f>
+        <v>459</v>
+      </c>
       <c r="F116" s="37">
         <f>IF(ISBLANK(E116),0,IF(E116=Answers!E116,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="25" t="s">
         <v>31</v>
@@ -6862,8 +6916,20 @@
       <c r="H116" s="25">
         <v>3</v>
       </c>
-      <c r="I116" s="25" t="s">
+      <c r="I116" s="156" t="s">
         <v>53</v>
+      </c>
+      <c r="K116" s="1">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="L116" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bamboo</v>
+      </c>
+      <c r="M116" s="1">
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
@@ -6898,10 +6964,13 @@
       <c r="D117" s="18">
         <v>10</v>
       </c>
-      <c r="E117" s="19"/>
+      <c r="E117" s="19">
+        <f t="shared" si="5"/>
+        <v>1862</v>
+      </c>
       <c r="F117" s="37">
         <f>IF(ISBLANK(E117),0,IF(E117=Answers!E117,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="25" t="s">
         <v>34</v>
@@ -6909,8 +6978,20 @@
       <c r="H117" s="25">
         <v>14</v>
       </c>
-      <c r="I117" s="25" t="s">
+      <c r="I117" s="156" t="s">
         <v>50</v>
+      </c>
+      <c r="K117" s="1">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="L117" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" si="4"/>
+        <v>168</v>
       </c>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
@@ -6945,10 +7026,13 @@
       <c r="D118" s="18">
         <v>10</v>
       </c>
-      <c r="E118" s="19"/>
+      <c r="E118" s="19">
+        <f t="shared" si="5"/>
+        <v>1188</v>
+      </c>
       <c r="F118" s="37">
         <f>IF(ISBLANK(E118),0,IF(E118=Answers!E118,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="25" t="s">
         <v>82</v>
@@ -6956,8 +7040,20 @@
       <c r="H118" s="25">
         <v>6</v>
       </c>
-      <c r="I118" s="25" t="s">
+      <c r="I118" s="156" t="s">
         <v>50</v>
+      </c>
+      <c r="K118" s="1">
+        <f t="shared" si="2"/>
+        <v>1260</v>
+      </c>
+      <c r="L118" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
@@ -6992,10 +7088,13 @@
       <c r="D119" s="18">
         <v>10</v>
       </c>
-      <c r="E119" s="19"/>
+      <c r="E119" s="19">
+        <f t="shared" si="5"/>
+        <v>1057</v>
+      </c>
       <c r="F119" s="37">
         <f>IF(ISBLANK(E119),0,IF(E119=Answers!E119,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="25" t="s">
         <v>28</v>
@@ -7003,8 +7102,20 @@
       <c r="H119" s="25">
         <v>7</v>
       </c>
-      <c r="I119" s="25" t="s">
+      <c r="I119" s="156" t="s">
         <v>56</v>
+      </c>
+      <c r="K119" s="1">
+        <f t="shared" si="2"/>
+        <v>1085</v>
+      </c>
+      <c r="L119" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Raspberries</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
@@ -7039,10 +7150,13 @@
       <c r="D120" s="18">
         <v>10</v>
       </c>
-      <c r="E120" s="19"/>
+      <c r="E120" s="19">
+        <f t="shared" si="5"/>
+        <v>1464</v>
+      </c>
       <c r="F120" s="37">
         <f>IF(ISBLANK(E120),0,IF(E120=Answers!E120,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="25" t="s">
         <v>83</v>
@@ -7050,8 +7164,20 @@
       <c r="H120" s="25">
         <v>8</v>
       </c>
-      <c r="I120" s="25" t="s">
+      <c r="I120" s="156" t="s">
         <v>53</v>
+      </c>
+      <c r="K120" s="1">
+        <f t="shared" si="2"/>
+        <v>1520</v>
+      </c>
+      <c r="L120" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bamboo</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
@@ -7086,10 +7212,13 @@
       <c r="D121" s="18">
         <v>10</v>
       </c>
-      <c r="E121" s="19"/>
+      <c r="E121" s="19">
+        <f t="shared" si="5"/>
+        <v>931</v>
+      </c>
       <c r="F121" s="37">
         <f>IF(ISBLANK(E121),0,IF(E121=Answers!E121,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="25" t="s">
         <v>34</v>
@@ -7097,8 +7226,20 @@
       <c r="H121" s="25">
         <v>7</v>
       </c>
-      <c r="I121" s="25" t="s">
+      <c r="I121" s="156" t="s">
         <v>50</v>
+      </c>
+      <c r="K121" s="1">
+        <f t="shared" si="2"/>
+        <v>1015</v>
+      </c>
+      <c r="L121" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
@@ -7133,10 +7274,13 @@
       <c r="D122" s="18">
         <v>10</v>
       </c>
-      <c r="E122" s="19"/>
+      <c r="E122" s="19">
+        <f t="shared" si="5"/>
+        <v>1422</v>
+      </c>
       <c r="F122" s="37">
         <f>IF(ISBLANK(E122),0,IF(E122=Answers!E122,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="25" t="s">
         <v>37</v>
@@ -7144,8 +7288,20 @@
       <c r="H122" s="25">
         <v>9</v>
       </c>
-      <c r="I122" s="25" t="s">
+      <c r="I122" s="156" t="s">
         <v>50</v>
+      </c>
+      <c r="K122" s="1">
+        <f t="shared" si="2"/>
+        <v>1530</v>
+      </c>
+      <c r="L122" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
@@ -7171,7 +7327,7 @@
     </row>
     <row r="123" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B123" s="17">
-        <f t="shared" ref="B123:B188" si="2">B122+1</f>
+        <f t="shared" ref="B123:B188" si="6">B122+1</f>
         <v>39</v>
       </c>
       <c r="C123" s="17">
@@ -7180,10 +7336,13 @@
       <c r="D123" s="18">
         <v>10</v>
       </c>
-      <c r="E123" s="19"/>
+      <c r="E123" s="19">
+        <f t="shared" si="5"/>
+        <v>1692</v>
+      </c>
       <c r="F123" s="37">
         <f>IF(ISBLANK(E123),0,IF(E123=Answers!E123,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="25" t="s">
         <v>84</v>
@@ -7191,8 +7350,20 @@
       <c r="H123" s="25">
         <v>9</v>
       </c>
-      <c r="I123" s="25" t="s">
+      <c r="I123" s="156" t="s">
         <v>53</v>
+      </c>
+      <c r="K123" s="1">
+        <f t="shared" si="2"/>
+        <v>1755</v>
+      </c>
+      <c r="L123" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bamboo</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" si="4"/>
+        <v>63</v>
       </c>
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
@@ -7218,7 +7389,7 @@
     </row>
     <row r="124" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B124" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="C124" s="17">
@@ -7227,10 +7398,13 @@
       <c r="D124" s="18">
         <v>10</v>
       </c>
-      <c r="E124" s="19"/>
+      <c r="E124" s="19">
+        <f t="shared" si="5"/>
+        <v>1302</v>
+      </c>
       <c r="F124" s="37">
         <f>IF(ISBLANK(E124),0,IF(E124=Answers!E124,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="25" t="s">
         <v>83</v>
@@ -7238,8 +7412,20 @@
       <c r="H124" s="25">
         <v>7</v>
       </c>
-      <c r="I124" s="25" t="s">
+      <c r="I124" s="156" t="s">
         <v>56</v>
+      </c>
+      <c r="K124" s="1">
+        <f t="shared" si="2"/>
+        <v>1330</v>
+      </c>
+      <c r="L124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Raspberries</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
@@ -7265,7 +7451,7 @@
     </row>
     <row r="125" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B125" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="C125" s="17">
@@ -7274,10 +7460,13 @@
       <c r="D125" s="18">
         <v>10</v>
       </c>
-      <c r="E125" s="19"/>
+      <c r="E125" s="19">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
       <c r="F125" s="37">
         <f>IF(ISBLANK(E125),0,IF(E125=Answers!E125,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="25" t="s">
         <v>84</v>
@@ -7285,8 +7474,20 @@
       <c r="H125" s="25">
         <v>11</v>
       </c>
-      <c r="I125" s="25" t="s">
+      <c r="I125" s="156" t="s">
         <v>50</v>
+      </c>
+      <c r="K125" s="1">
+        <f t="shared" si="2"/>
+        <v>2145</v>
+      </c>
+      <c r="L125" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" si="4"/>
+        <v>132</v>
       </c>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
@@ -7312,7 +7513,7 @@
     </row>
     <row r="126" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B126" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="C126" s="17">
@@ -7321,10 +7522,13 @@
       <c r="D126" s="18">
         <v>10</v>
       </c>
-      <c r="E126" s="19"/>
+      <c r="E126" s="19">
+        <f t="shared" si="5"/>
+        <v>2976</v>
+      </c>
       <c r="F126" s="37">
         <f>IF(ISBLANK(E126),0,IF(E126=Answers!E126,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="25" t="s">
         <v>83</v>
@@ -7332,8 +7536,20 @@
       <c r="H126" s="25">
         <v>16</v>
       </c>
-      <c r="I126" s="25" t="s">
+      <c r="I126" s="156" t="s">
         <v>56</v>
+      </c>
+      <c r="K126" s="1">
+        <f t="shared" si="2"/>
+        <v>3040</v>
+      </c>
+      <c r="L126" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Raspberries</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
@@ -7359,7 +7575,7 @@
     </row>
     <row r="127" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B127" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="C127" s="17">
@@ -7368,10 +7584,13 @@
       <c r="D127" s="18">
         <v>10</v>
       </c>
-      <c r="E127" s="19"/>
+      <c r="E127" s="19">
+        <f t="shared" si="5"/>
+        <v>2249</v>
+      </c>
       <c r="F127" s="37">
         <f>IF(ISBLANK(E127),0,IF(E127=Answers!E127,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="25" t="s">
         <v>92</v>
@@ -7379,8 +7598,20 @@
       <c r="H127" s="25">
         <v>13</v>
       </c>
-      <c r="I127" s="25" t="s">
+      <c r="I127" s="156" t="s">
         <v>53</v>
+      </c>
+      <c r="K127" s="1">
+        <f t="shared" si="2"/>
+        <v>2340</v>
+      </c>
+      <c r="L127" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bamboo</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
@@ -7406,7 +7637,7 @@
     </row>
     <row r="128" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B128" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="C128" s="17">
@@ -7415,10 +7646,13 @@
       <c r="D128" s="18">
         <v>10</v>
       </c>
-      <c r="E128" s="19"/>
+      <c r="E128" s="19">
+        <f t="shared" si="5"/>
+        <v>4116</v>
+      </c>
       <c r="F128" s="37">
         <f>IF(ISBLANK(E128),0,IF(E128=Answers!E128,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="25" t="s">
         <v>81</v>
@@ -7426,8 +7660,20 @@
       <c r="H128" s="25">
         <v>21</v>
       </c>
-      <c r="I128" s="25" t="s">
+      <c r="I128" s="156" t="s">
         <v>56</v>
+      </c>
+      <c r="K128" s="1">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="L128" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Raspberries</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
@@ -7453,7 +7699,7 @@
     </row>
     <row r="129" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B129" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="C129" s="17">
@@ -7462,10 +7708,13 @@
       <c r="D129" s="18">
         <v>10</v>
       </c>
-      <c r="E129" s="19"/>
+      <c r="E129" s="19">
+        <f t="shared" si="5"/>
+        <v>2670</v>
+      </c>
       <c r="F129" s="37">
         <f>IF(ISBLANK(E129),0,IF(E129=Answers!E129,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="25" t="s">
         <v>93</v>
@@ -7473,8 +7722,20 @@
       <c r="H129" s="25">
         <v>15</v>
       </c>
-      <c r="I129" s="25" t="s">
+      <c r="I129" s="156" t="s">
         <v>53</v>
+      </c>
+      <c r="K129" s="1">
+        <f t="shared" si="2"/>
+        <v>2775</v>
+      </c>
+      <c r="L129" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bamboo</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="AB129" s="4"/>
       <c r="AC129" s="4"/>
@@ -7500,7 +7761,7 @@
     </row>
     <row r="130" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B130" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="C130" s="17">
@@ -7509,10 +7770,13 @@
       <c r="D130" s="18">
         <v>10</v>
       </c>
-      <c r="E130" s="19"/>
+      <c r="E130" s="19">
+        <f t="shared" si="5"/>
+        <v>752</v>
+      </c>
       <c r="F130" s="37">
         <f>IF(ISBLANK(E130),0,IF(E130=Answers!E130,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="25" t="s">
         <v>84</v>
@@ -7520,8 +7784,20 @@
       <c r="H130" s="25">
         <v>4</v>
       </c>
-      <c r="I130" s="25" t="s">
+      <c r="I130" s="156" t="s">
         <v>53</v>
+      </c>
+      <c r="K130" s="1">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+      <c r="L130" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bamboo</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
@@ -7547,7 +7823,7 @@
     </row>
     <row r="131" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B131" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="C131" s="17">
@@ -7556,10 +7832,13 @@
       <c r="D131" s="18">
         <v>10</v>
       </c>
-      <c r="E131" s="19"/>
+      <c r="E131" s="19">
+        <f t="shared" si="5"/>
+        <v>865</v>
+      </c>
       <c r="F131" s="37">
         <f>IF(ISBLANK(E131),0,IF(E131=Answers!E131,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="25" t="s">
         <v>93</v>
@@ -7567,8 +7846,20 @@
       <c r="H131" s="25">
         <v>5</v>
       </c>
-      <c r="I131" s="25" t="s">
+      <c r="I131" s="156" t="s">
         <v>50</v>
+      </c>
+      <c r="K131" s="1">
+        <f t="shared" si="2"/>
+        <v>925</v>
+      </c>
+      <c r="L131" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
@@ -7594,7 +7885,7 @@
     </row>
     <row r="132" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B132" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="C132" s="17">
@@ -7603,10 +7894,13 @@
       <c r="D132" s="18">
         <v>10</v>
       </c>
-      <c r="E132" s="19"/>
+      <c r="E132" s="19">
+        <f t="shared" si="5"/>
+        <v>2907</v>
+      </c>
       <c r="F132" s="37">
         <f>IF(ISBLANK(E132),0,IF(E132=Answers!E132,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="25" t="s">
         <v>31</v>
@@ -7614,8 +7908,20 @@
       <c r="H132" s="25">
         <v>19</v>
       </c>
-      <c r="I132" s="25" t="s">
+      <c r="I132" s="156" t="s">
         <v>53</v>
+      </c>
+      <c r="K132" s="1">
+        <f t="shared" si="2"/>
+        <v>3040</v>
+      </c>
+      <c r="L132" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bamboo</v>
+      </c>
+      <c r="M132" s="1">
+        <f t="shared" si="4"/>
+        <v>133</v>
       </c>
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
@@ -7641,7 +7947,7 @@
     </row>
     <row r="133" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B133" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="C133" s="17">
@@ -7650,10 +7956,13 @@
       <c r="D133" s="18">
         <v>10</v>
       </c>
-      <c r="E133" s="19"/>
+      <c r="E133" s="19">
+        <f t="shared" si="5"/>
+        <v>1833</v>
+      </c>
       <c r="F133" s="37">
         <f>IF(ISBLANK(E133),0,IF(E133=Answers!E133,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="25" t="s">
         <v>34</v>
@@ -7661,8 +7970,20 @@
       <c r="H133" s="25">
         <v>13</v>
       </c>
-      <c r="I133" s="25" t="s">
+      <c r="I133" s="156" t="s">
         <v>56</v>
+      </c>
+      <c r="K133" s="1">
+        <f t="shared" si="2"/>
+        <v>1885</v>
+      </c>
+      <c r="L133" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Raspberries</v>
+      </c>
+      <c r="M133" s="1">
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
@@ -7688,7 +8009,7 @@
     </row>
     <row r="134" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B134" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="C134" s="17">
@@ -7697,10 +8018,13 @@
       <c r="D134" s="18">
         <v>10</v>
       </c>
-      <c r="E134" s="19"/>
+      <c r="E134" s="19">
+        <f t="shared" si="5"/>
+        <v>2686</v>
+      </c>
       <c r="F134" s="37">
         <f>IF(ISBLANK(E134),0,IF(E134=Answers!E134,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="25" t="s">
         <v>37</v>
@@ -7708,8 +8032,20 @@
       <c r="H134" s="25">
         <v>17</v>
       </c>
-      <c r="I134" s="25" t="s">
+      <c r="I134" s="156" t="s">
         <v>50</v>
+      </c>
+      <c r="K134" s="1">
+        <f t="shared" si="2"/>
+        <v>2890</v>
+      </c>
+      <c r="L134" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" si="4"/>
+        <v>204</v>
       </c>
       <c r="AB134" s="4"/>
       <c r="AC134" s="4"/>
@@ -7764,11 +8100,11 @@
       </c>
       <c r="E136" s="19">
         <f>SUM(E115:E134)</f>
-        <v>0</v>
+        <v>35532</v>
       </c>
       <c r="F136" s="37">
         <f>IF(ISBLANK(E136),0,IF(E136=Answers!E136,1,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK136" s="4"/>
       <c r="AL136" s="4"/>
@@ -8111,7 +8447,7 @@
     </row>
     <row r="150" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B150" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="C150" s="17">
@@ -8149,7 +8485,7 @@
     </row>
     <row r="151" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B151" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="C151" s="17">
@@ -8187,7 +8523,7 @@
     </row>
     <row r="152" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B152" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="C152" s="17">
@@ -8225,7 +8561,7 @@
     </row>
     <row r="153" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B153" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="C153" s="17">
@@ -8263,7 +8599,7 @@
     </row>
     <row r="154" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B154" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="C154" s="17">
@@ -8301,7 +8637,7 @@
     </row>
     <row r="155" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B155" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="C155" s="17">
@@ -8339,7 +8675,7 @@
     </row>
     <row r="156" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B156" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="C156" s="17">
@@ -8377,7 +8713,7 @@
     </row>
     <row r="157" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B157" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="C157" s="17">
@@ -8415,7 +8751,7 @@
     </row>
     <row r="158" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B158" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="C158" s="17">
@@ -8453,7 +8789,7 @@
     </row>
     <row r="159" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B159" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="C159" s="17">
@@ -8491,7 +8827,7 @@
     </row>
     <row r="160" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B160" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="C160" s="17">
@@ -8529,7 +8865,7 @@
     </row>
     <row r="161" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B161" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="C161" s="17">
@@ -8567,7 +8903,7 @@
     </row>
     <row r="162" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B162" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="C162" s="17">
@@ -8605,7 +8941,7 @@
     </row>
     <row r="163" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B163" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="C163" s="17">
@@ -8643,7 +8979,7 @@
     </row>
     <row r="164" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B164" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="C164" s="17">
@@ -8681,7 +9017,7 @@
     </row>
     <row r="165" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B165" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="C165" s="17">
@@ -8719,7 +9055,7 @@
     </row>
     <row r="166" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B166" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="C166" s="17">
@@ -8757,7 +9093,7 @@
     </row>
     <row r="167" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B167" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="C167" s="17">
@@ -8795,7 +9131,7 @@
     </row>
     <row r="168" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B168" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="C168" s="17">
@@ -9653,7 +9989,7 @@
     </row>
     <row r="185" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B185" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="C185" s="17">
@@ -9714,7 +10050,7 @@
     </row>
     <row r="186" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B186" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="C186" s="17">
@@ -9775,7 +10111,7 @@
     </row>
     <row r="187" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B187" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="C187" s="17">
@@ -9836,7 +10172,7 @@
     </row>
     <row r="188" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B188" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="C188" s="17">
@@ -9897,7 +10233,7 @@
     </row>
     <row r="189" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B189" s="17">
-        <f t="shared" ref="B189:B213" si="3">B188+1</f>
+        <f t="shared" ref="B189:B213" si="7">B188+1</f>
         <v>76</v>
       </c>
       <c r="C189" s="17">
@@ -9958,7 +10294,7 @@
     </row>
     <row r="190" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B190" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="C190" s="17">
@@ -10019,7 +10355,7 @@
     </row>
     <row r="191" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B191" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="C191" s="17">
@@ -10080,7 +10416,7 @@
     </row>
     <row r="192" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B192" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="C192" s="17">
@@ -10141,7 +10477,7 @@
     </row>
     <row r="193" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B193" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="C193" s="17">
@@ -10202,7 +10538,7 @@
     </row>
     <row r="194" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B194" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="C194" s="17">
@@ -10263,7 +10599,7 @@
     </row>
     <row r="195" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B195" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="C195" s="17">
@@ -10324,7 +10660,7 @@
     </row>
     <row r="196" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B196" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="C196" s="17">
@@ -10385,7 +10721,7 @@
     </row>
     <row r="197" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B197" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="C197" s="17">
@@ -10446,7 +10782,7 @@
     </row>
     <row r="198" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B198" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="C198" s="17">
@@ -10507,7 +10843,7 @@
     </row>
     <row r="199" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B199" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="C199" s="17">
@@ -10568,7 +10904,7 @@
     </row>
     <row r="200" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B200" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="C200" s="17">
@@ -10629,7 +10965,7 @@
     </row>
     <row r="201" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B201" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="C201" s="17">
@@ -10690,7 +11026,7 @@
     </row>
     <row r="202" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B202" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="C202" s="17">
@@ -10751,7 +11087,7 @@
     </row>
     <row r="203" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B203" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="C203" s="17">
@@ -10812,7 +11148,7 @@
     </row>
     <row r="204" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B204" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="C204" s="17">
@@ -10873,7 +11209,7 @@
     </row>
     <row r="205" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B205" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="C205" s="17">
@@ -10934,7 +11270,7 @@
     </row>
     <row r="206" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B206" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="C206" s="17">
@@ -10995,7 +11331,7 @@
     </row>
     <row r="207" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B207" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="C207" s="17">
@@ -11056,7 +11392,7 @@
     </row>
     <row r="208" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B208" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="C208" s="17">
@@ -11117,7 +11453,7 @@
     </row>
     <row r="209" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B209" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="C209" s="17">
@@ -11178,7 +11514,7 @@
     </row>
     <row r="210" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B210" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="C210" s="17">
@@ -11239,7 +11575,7 @@
     </row>
     <row r="211" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B211" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="C211" s="17">
@@ -11300,7 +11636,7 @@
     </row>
     <row r="212" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B212" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="C212" s="17">
@@ -11361,7 +11697,7 @@
     </row>
     <row r="213" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B213" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="C213" s="17">
@@ -11911,19 +12247,19 @@
       <c r="AV1" s="4"/>
     </row>
     <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
       <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
@@ -12022,19 +12358,19 @@
       <c r="AV8" s="4"/>
     </row>
     <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
-      <c r="K9" s="145" t="s">
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+      <c r="K9" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="145"/>
+      <c r="L9" s="154"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -12060,15 +12396,15 @@
       <c r="AV9" s="4"/>
     </row>
     <row r="10" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="129"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
@@ -12095,13 +12431,13 @@
       <c r="AV10" s="4"/>
     </row>
     <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="132"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="141"/>
       <c r="K11" s="90" t="s">
         <v>6</v>
       </c>
@@ -12135,13 +12471,13 @@
       <c r="AV11" s="4"/>
     </row>
     <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="132"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="141"/>
       <c r="K12" s="79" t="s">
         <v>7</v>
       </c>
@@ -12165,13 +12501,13 @@
       <c r="AV12" s="4"/>
     </row>
     <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="132"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="141"/>
       <c r="K13" s="58" t="s">
         <v>8</v>
       </c>
@@ -12205,13 +12541,13 @@
       <c r="AV13" s="4"/>
     </row>
     <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="132"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
       <c r="K14" s="58" t="s">
         <v>9</v>
       </c>
@@ -12245,13 +12581,13 @@
       <c r="AV14" s="4"/>
     </row>
     <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="132"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="K15" s="58" t="s">
         <v>10</v>
       </c>
@@ -12278,13 +12614,13 @@
       <c r="AV15" s="4"/>
     </row>
     <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="132"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
       <c r="K16" s="58" t="s">
         <v>11</v>
       </c>
@@ -12311,13 +12647,13 @@
       <c r="AV16" s="4"/>
     </row>
     <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141"/>
       <c r="K17" s="58" t="s">
         <v>12</v>
       </c>
@@ -12344,13 +12680,13 @@
       <c r="AV17" s="4"/>
     </row>
     <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="144"/>
       <c r="K18" s="58" t="s">
         <v>13</v>
       </c>
@@ -12399,15 +12735,15 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="58" t="s">
@@ -12696,15 +13032,15 @@
       <c r="AV29" s="4"/>
     </row>
     <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="58" t="s">
@@ -12978,14 +13314,14 @@
       <c r="E41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="123" t="s">
+      <c r="G41" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="125"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="134"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -13020,14 +13356,14 @@
         <v>15</v>
       </c>
       <c r="F42" s="37"/>
-      <c r="G42" s="139" t="s">
+      <c r="G42" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="141"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="150"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -13062,14 +13398,14 @@
         <v>12</v>
       </c>
       <c r="F43" s="37"/>
-      <c r="G43" s="142" t="s">
+      <c r="G43" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="144"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="153"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -13104,14 +13440,14 @@
         <v>31</v>
       </c>
       <c r="F44" s="37"/>
-      <c r="G44" s="120" t="s">
+      <c r="G44" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="122"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="131"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>

--- a/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - My Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AB7758-F86A-4D36-9D26-1E7DF689D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3855D2F3-5A7D-4A1C-950E-DAB2B0D5C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="211">
   <si>
     <t>Bear Island</t>
   </si>
@@ -769,6 +769,12 @@
   </si>
   <si>
     <t>Profit</t>
+  </si>
+  <si>
+    <t>Bear Treat</t>
+  </si>
+  <si>
+    <t>Cost of Bear Treat</t>
   </si>
 </sst>
 </file>
@@ -2261,6 +2267,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2356,18 +2374,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2921,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1BDF3C-7CF1-4670-8742-2CB86BCAA1B5}">
   <dimension ref="A1:AV222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2978,19 +2984,19 @@
       <c r="AV1" s="4"/>
     </row>
     <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
       <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
@@ -3089,19 +3095,19 @@
       <c r="AV8" s="4"/>
     </row>
     <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
-      <c r="K9" s="154" t="s">
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="151"/>
+      <c r="K9" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="154"/>
+      <c r="L9" s="158"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -3127,15 +3133,15 @@
       <c r="AV9" s="4"/>
     </row>
     <row r="10" spans="2:48" ht="14.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="138"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
@@ -3162,13 +3168,13 @@
       <c r="AV10" s="4"/>
     </row>
     <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
       <c r="K11" s="90" t="s">
         <v>6</v>
       </c>
@@ -3202,13 +3208,13 @@
       <c r="AV11" s="4"/>
     </row>
     <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="141"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="145"/>
       <c r="K12" s="79" t="s">
         <v>7</v>
       </c>
@@ -3235,13 +3241,13 @@
       <c r="AV12" s="4"/>
     </row>
     <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
       <c r="K13" s="58" t="s">
         <v>8</v>
       </c>
@@ -3283,13 +3289,13 @@
       <c r="AV13" s="4"/>
     </row>
     <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
       <c r="K14" s="58" t="s">
         <v>9</v>
       </c>
@@ -3330,13 +3336,13 @@
       <c r="AV14" s="4"/>
     </row>
     <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="139"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
       <c r="K15" s="58" t="s">
         <v>10</v>
       </c>
@@ -3370,13 +3376,13 @@
       <c r="AV15" s="4"/>
     </row>
     <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="139"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
       <c r="K16" s="58" t="s">
         <v>11</v>
       </c>
@@ -3410,13 +3416,13 @@
       <c r="AV16" s="4"/>
     </row>
     <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
       <c r="K17" s="58" t="s">
         <v>12</v>
       </c>
@@ -3450,13 +3456,13 @@
       <c r="AV17" s="4"/>
     </row>
     <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="142"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
       <c r="K18" s="58" t="s">
         <v>13</v>
       </c>
@@ -3515,15 +3521,15 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="58" t="s">
@@ -3886,15 +3892,15 @@
       <c r="AV29" s="4"/>
     </row>
     <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="58" t="s">
@@ -3984,7 +3990,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="157" t="s">
+      <c r="D33" s="125" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="46">
@@ -4014,7 +4020,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="47"/>
-      <c r="D34" s="158" t="s">
+      <c r="D34" s="126" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="29">
@@ -4044,7 +4050,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="53"/>
-      <c r="D35" s="159" t="s">
+      <c r="D35" s="127" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="54">
@@ -4186,14 +4192,14 @@
       <c r="E41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="132" t="s">
+      <c r="G41" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="134"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="138"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -4229,14 +4235,14 @@
         <f>IF(ISBLANK(E42),0,IF(E42=Answers!E42,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G42" s="148" t="s">
+      <c r="G42" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="150"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="154"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -4272,14 +4278,14 @@
         <f>IF(ISBLANK(E43),0,IF(E43=Answers!E43,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G43" s="151" t="s">
+      <c r="G43" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="153"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="157"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -4315,14 +4321,14 @@
         <f>IF(ISBLANK(E44),0,IF(E44=Answers!E44,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G44" s="129" t="s">
+      <c r="G44" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="131"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="135"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
@@ -4454,7 +4460,7 @@
       <c r="AV49" s="4"/>
     </row>
     <row r="50" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="K50" s="126">
+      <c r="K50" s="130">
         <f>SUMPRODUCT(D:D,F:F)</f>
         <v>420</v>
       </c>
@@ -4475,7 +4481,7 @@
       <c r="B51" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K51" s="127"/>
+      <c r="K51" s="131"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="AK51" s="4"/>
@@ -4494,7 +4500,7 @@
     <row r="52" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="22"/>
       <c r="G52" s="26"/>
-      <c r="K52" s="127"/>
+      <c r="K52" s="131"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="AK52" s="4"/>
@@ -4529,7 +4535,7 @@
       <c r="H53" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="128"/>
+      <c r="K53" s="132"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="AK53" s="4"/>
@@ -6709,6 +6715,15 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
+      <c r="K112" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
       <c r="AD112" s="4"/>
@@ -6754,7 +6769,7 @@
       <c r="H113" s="25">
         <v>3</v>
       </c>
-      <c r="I113" s="156" t="s">
+      <c r="I113" s="124" t="s">
         <v>50</v>
       </c>
       <c r="K113" s="1">
@@ -6854,7 +6869,7 @@
       <c r="H115" s="25">
         <v>8</v>
       </c>
-      <c r="I115" s="156" t="s">
+      <c r="I115" s="124" t="s">
         <v>56</v>
       </c>
       <c r="K115" s="1">
@@ -6916,7 +6931,7 @@
       <c r="H116" s="25">
         <v>3</v>
       </c>
-      <c r="I116" s="156" t="s">
+      <c r="I116" s="124" t="s">
         <v>53</v>
       </c>
       <c r="K116" s="1">
@@ -6978,7 +6993,7 @@
       <c r="H117" s="25">
         <v>14</v>
       </c>
-      <c r="I117" s="156" t="s">
+      <c r="I117" s="124" t="s">
         <v>50</v>
       </c>
       <c r="K117" s="1">
@@ -7040,7 +7055,7 @@
       <c r="H118" s="25">
         <v>6</v>
       </c>
-      <c r="I118" s="156" t="s">
+      <c r="I118" s="124" t="s">
         <v>50</v>
       </c>
       <c r="K118" s="1">
@@ -7102,7 +7117,7 @@
       <c r="H119" s="25">
         <v>7</v>
       </c>
-      <c r="I119" s="156" t="s">
+      <c r="I119" s="124" t="s">
         <v>56</v>
       </c>
       <c r="K119" s="1">
@@ -7164,7 +7179,7 @@
       <c r="H120" s="25">
         <v>8</v>
       </c>
-      <c r="I120" s="156" t="s">
+      <c r="I120" s="124" t="s">
         <v>53</v>
       </c>
       <c r="K120" s="1">
@@ -7226,7 +7241,7 @@
       <c r="H121" s="25">
         <v>7</v>
       </c>
-      <c r="I121" s="156" t="s">
+      <c r="I121" s="124" t="s">
         <v>50</v>
       </c>
       <c r="K121" s="1">
@@ -7288,7 +7303,7 @@
       <c r="H122" s="25">
         <v>9</v>
       </c>
-      <c r="I122" s="156" t="s">
+      <c r="I122" s="124" t="s">
         <v>50</v>
       </c>
       <c r="K122" s="1">
@@ -7350,7 +7365,7 @@
       <c r="H123" s="25">
         <v>9</v>
       </c>
-      <c r="I123" s="156" t="s">
+      <c r="I123" s="124" t="s">
         <v>53</v>
       </c>
       <c r="K123" s="1">
@@ -7412,7 +7427,7 @@
       <c r="H124" s="25">
         <v>7</v>
       </c>
-      <c r="I124" s="156" t="s">
+      <c r="I124" s="124" t="s">
         <v>56</v>
       </c>
       <c r="K124" s="1">
@@ -7474,7 +7489,7 @@
       <c r="H125" s="25">
         <v>11</v>
       </c>
-      <c r="I125" s="156" t="s">
+      <c r="I125" s="124" t="s">
         <v>50</v>
       </c>
       <c r="K125" s="1">
@@ -7536,7 +7551,7 @@
       <c r="H126" s="25">
         <v>16</v>
       </c>
-      <c r="I126" s="156" t="s">
+      <c r="I126" s="124" t="s">
         <v>56</v>
       </c>
       <c r="K126" s="1">
@@ -7598,7 +7613,7 @@
       <c r="H127" s="25">
         <v>13</v>
       </c>
-      <c r="I127" s="156" t="s">
+      <c r="I127" s="124" t="s">
         <v>53</v>
       </c>
       <c r="K127" s="1">
@@ -7660,7 +7675,7 @@
       <c r="H128" s="25">
         <v>21</v>
       </c>
-      <c r="I128" s="156" t="s">
+      <c r="I128" s="124" t="s">
         <v>56</v>
       </c>
       <c r="K128" s="1">
@@ -7722,7 +7737,7 @@
       <c r="H129" s="25">
         <v>15</v>
       </c>
-      <c r="I129" s="156" t="s">
+      <c r="I129" s="124" t="s">
         <v>53</v>
       </c>
       <c r="K129" s="1">
@@ -7784,7 +7799,7 @@
       <c r="H130" s="25">
         <v>4</v>
       </c>
-      <c r="I130" s="156" t="s">
+      <c r="I130" s="124" t="s">
         <v>53</v>
       </c>
       <c r="K130" s="1">
@@ -7846,7 +7861,7 @@
       <c r="H131" s="25">
         <v>5</v>
       </c>
-      <c r="I131" s="156" t="s">
+      <c r="I131" s="124" t="s">
         <v>50</v>
       </c>
       <c r="K131" s="1">
@@ -7908,7 +7923,7 @@
       <c r="H132" s="25">
         <v>19</v>
       </c>
-      <c r="I132" s="156" t="s">
+      <c r="I132" s="124" t="s">
         <v>53</v>
       </c>
       <c r="K132" s="1">
@@ -7970,7 +7985,7 @@
       <c r="H133" s="25">
         <v>13</v>
       </c>
-      <c r="I133" s="156" t="s">
+      <c r="I133" s="124" t="s">
         <v>56</v>
       </c>
       <c r="K133" s="1">
@@ -8032,7 +8047,7 @@
       <c r="H134" s="25">
         <v>17</v>
       </c>
-      <c r="I134" s="156" t="s">
+      <c r="I134" s="124" t="s">
         <v>50</v>
       </c>
       <c r="K134" s="1">
@@ -12247,19 +12262,19 @@
       <c r="AV1" s="4"/>
     </row>
     <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
       <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
@@ -12358,19 +12373,19 @@
       <c r="AV8" s="4"/>
     </row>
     <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
-      <c r="K9" s="154" t="s">
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="151"/>
+      <c r="K9" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="154"/>
+      <c r="L9" s="158"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -12396,15 +12411,15 @@
       <c r="AV9" s="4"/>
     </row>
     <row r="10" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="159" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="138"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
@@ -12431,13 +12446,13 @@
       <c r="AV10" s="4"/>
     </row>
     <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
       <c r="K11" s="90" t="s">
         <v>6</v>
       </c>
@@ -12471,13 +12486,13 @@
       <c r="AV11" s="4"/>
     </row>
     <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="141"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="145"/>
       <c r="K12" s="79" t="s">
         <v>7</v>
       </c>
@@ -12501,13 +12516,13 @@
       <c r="AV12" s="4"/>
     </row>
     <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
       <c r="K13" s="58" t="s">
         <v>8</v>
       </c>
@@ -12541,13 +12556,13 @@
       <c r="AV13" s="4"/>
     </row>
     <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
       <c r="K14" s="58" t="s">
         <v>9</v>
       </c>
@@ -12581,13 +12596,13 @@
       <c r="AV14" s="4"/>
     </row>
     <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="139"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
       <c r="K15" s="58" t="s">
         <v>10</v>
       </c>
@@ -12614,13 +12629,13 @@
       <c r="AV15" s="4"/>
     </row>
     <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="139"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
       <c r="K16" s="58" t="s">
         <v>11</v>
       </c>
@@ -12647,13 +12662,13 @@
       <c r="AV16" s="4"/>
     </row>
     <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
       <c r="K17" s="58" t="s">
         <v>12</v>
       </c>
@@ -12680,13 +12695,13 @@
       <c r="AV17" s="4"/>
     </row>
     <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="142"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
       <c r="K18" s="58" t="s">
         <v>13</v>
       </c>
@@ -12735,15 +12750,15 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="58" t="s">
@@ -13032,15 +13047,15 @@
       <c r="AV29" s="4"/>
     </row>
     <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="58" t="s">
@@ -13314,14 +13329,14 @@
       <c r="E41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="132" t="s">
+      <c r="G41" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="134"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="138"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -13356,14 +13371,14 @@
         <v>15</v>
       </c>
       <c r="F42" s="37"/>
-      <c r="G42" s="148" t="s">
+      <c r="G42" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="150"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="154"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -13398,14 +13413,14 @@
         <v>12</v>
       </c>
       <c r="F43" s="37"/>
-      <c r="G43" s="151" t="s">
+      <c r="G43" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="153"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="157"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -13440,14 +13455,14 @@
         <v>31</v>
       </c>
       <c r="F44" s="37"/>
-      <c r="G44" s="129" t="s">
+      <c r="G44" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="131"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="135"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
